--- a/datasets_single/kpcb_caz_avi_powder_4-1.xlsx
+++ b/datasets_single/kpcb_caz_avi_powder_4-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBB2B70-81C6-0749-8393-92299897CCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52FEEF8-6063-414B-A555-D371E0EE0E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3800" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -907,15 +907,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K2" sqref="K2:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -941,7 +944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -968,8 +971,11 @@
         <f>F2*42</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -996,8 +1002,11 @@
         <f t="shared" ref="H3:H46" si="1">F3*42</f>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1024,8 +1033,11 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1052,8 +1064,11 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1080,8 +1095,11 @@
         <f t="shared" si="1"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>319.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1108,8 +1126,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1136,8 +1157,11 @@
         <f t="shared" si="1"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1164,8 +1188,11 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1192,8 +1219,11 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1220,8 +1250,11 @@
         <f t="shared" si="1"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>319.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1248,8 +1281,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1276,8 +1312,11 @@
         <f t="shared" si="1"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1304,8 +1343,11 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -1332,8 +1374,11 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -1360,8 +1405,11 @@
         <f t="shared" si="1"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>319.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -1388,8 +1436,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -1416,8 +1467,11 @@
         <f t="shared" si="1"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -1444,8 +1498,11 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1472,8 +1529,11 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -1500,8 +1560,11 @@
         <f t="shared" si="1"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>319.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -1528,8 +1591,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -1556,8 +1622,11 @@
         <f t="shared" si="1"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>5</v>
       </c>
@@ -1584,8 +1653,11 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -1612,8 +1684,11 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -1640,8 +1715,11 @@
         <f t="shared" si="1"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>319.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -1668,8 +1746,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -1696,8 +1777,11 @@
         <f t="shared" si="1"/>
         <v>24.9375</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>99.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>6</v>
       </c>
@@ -1724,8 +1808,11 @@
         <f t="shared" si="1"/>
         <v>29.925000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>119.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>7</v>
       </c>
@@ -1752,8 +1839,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>7</v>
       </c>
@@ -1780,8 +1870,11 @@
         <f t="shared" si="1"/>
         <v>24.9375</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>99.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>7</v>
       </c>
@@ -1808,8 +1901,11 @@
         <f t="shared" si="1"/>
         <v>29.925000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>119.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>8</v>
       </c>
@@ -1836,8 +1932,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -1864,8 +1963,11 @@
         <f t="shared" si="1"/>
         <v>24.9375</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>99.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -1892,8 +1994,11 @@
         <f t="shared" si="1"/>
         <v>29.925000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>119.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -1920,8 +2025,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>9</v>
       </c>
@@ -1948,8 +2056,11 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>9</v>
       </c>
@@ -1976,8 +2087,11 @@
         <f t="shared" si="1"/>
         <v>24.9375</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>99.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -2004,8 +2118,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>10</v>
       </c>
@@ -2032,8 +2149,11 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>10</v>
       </c>
@@ -2060,8 +2180,11 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>10</v>
       </c>
@@ -2088,8 +2211,11 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>11</v>
       </c>
@@ -2116,8 +2242,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>11</v>
       </c>
@@ -2144,8 +2273,11 @@
         <f t="shared" si="1"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K44">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>11</v>
       </c>
@@ -2172,8 +2304,11 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>11</v>
       </c>
@@ -2199,6 +2334,9 @@
       <c r="H46">
         <f t="shared" si="1"/>
         <v>39.9</v>
+      </c>
+      <c r="K46">
+        <v>159.6</v>
       </c>
     </row>
   </sheetData>

--- a/datasets_single/kpcb_caz_avi_powder_4-1.xlsx
+++ b/datasets_single/kpcb_caz_avi_powder_4-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52FEEF8-6063-414B-A555-D371E0EE0E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5B1E7C-5549-134D-ADDD-1896B1C56FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3800" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="10">
   <si>
     <t>replicate</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>avi_s</t>
+  </si>
+  <si>
+    <t>ctz_mic</t>
   </si>
 </sst>
 </file>
@@ -907,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K46"/>
+      <selection activeCell="I2" sqref="I2:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -918,7 +921,7 @@
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -943,8 +946,11 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -971,11 +977,12 @@
         <f>F2*42</f>
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <f>E2/1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1002,11 +1009,12 @@
         <f t="shared" ref="H3:H46" si="1">F3*42</f>
         <v>9.9749999999999996</v>
       </c>
-      <c r="K3">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <f t="shared" ref="I3:I46" si="2">E3/1</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1033,11 +1041,12 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-      <c r="K4">
-        <v>79.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1064,11 +1073,12 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-      <c r="K5">
-        <v>159.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1095,11 +1105,12 @@
         <f t="shared" si="1"/>
         <v>79.8</v>
       </c>
-      <c r="K6">
-        <v>319.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1126,11 +1137,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1157,11 +1169,12 @@
         <f t="shared" si="1"/>
         <v>9.9749999999999996</v>
       </c>
-      <c r="K8">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1188,11 +1201,12 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-      <c r="K9">
-        <v>79.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1219,11 +1233,12 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-      <c r="K10">
-        <v>159.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1250,11 +1265,12 @@
         <f t="shared" si="1"/>
         <v>79.8</v>
       </c>
-      <c r="K11">
-        <v>319.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1281,11 +1297,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1312,11 +1329,12 @@
         <f t="shared" si="1"/>
         <v>9.9749999999999996</v>
       </c>
-      <c r="K13">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1343,11 +1361,12 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-      <c r="K14">
-        <v>79.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -1374,11 +1393,12 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-      <c r="K15">
-        <v>159.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -1405,11 +1425,12 @@
         <f t="shared" si="1"/>
         <v>79.8</v>
       </c>
-      <c r="K16">
-        <v>319.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -1436,11 +1457,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -1467,11 +1489,12 @@
         <f t="shared" si="1"/>
         <v>9.9749999999999996</v>
       </c>
-      <c r="K18">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -1498,11 +1521,12 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-      <c r="K19">
-        <v>79.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1529,11 +1553,12 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-      <c r="K20">
-        <v>159.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -1560,11 +1585,12 @@
         <f t="shared" si="1"/>
         <v>79.8</v>
       </c>
-      <c r="K21">
-        <v>319.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -1591,11 +1617,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -1622,11 +1649,12 @@
         <f t="shared" si="1"/>
         <v>9.9749999999999996</v>
       </c>
-      <c r="K23">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>5</v>
       </c>
@@ -1653,11 +1681,12 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-      <c r="K24">
-        <v>79.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -1684,11 +1713,12 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-      <c r="K25">
-        <v>159.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -1715,11 +1745,12 @@
         <f t="shared" si="1"/>
         <v>79.8</v>
       </c>
-      <c r="K26">
-        <v>319.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -1746,11 +1777,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -1777,11 +1809,12 @@
         <f t="shared" si="1"/>
         <v>24.9375</v>
       </c>
-      <c r="K28">
-        <v>99.75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>6</v>
       </c>
@@ -1808,11 +1841,12 @@
         <f t="shared" si="1"/>
         <v>29.925000000000001</v>
       </c>
-      <c r="K29">
-        <v>119.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>7</v>
       </c>
@@ -1839,11 +1873,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>7</v>
       </c>
@@ -1870,11 +1905,12 @@
         <f t="shared" si="1"/>
         <v>24.9375</v>
       </c>
-      <c r="K31">
-        <v>99.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>7</v>
       </c>
@@ -1901,11 +1937,12 @@
         <f t="shared" si="1"/>
         <v>29.925000000000001</v>
       </c>
-      <c r="K32">
-        <v>119.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>8</v>
       </c>
@@ -1932,11 +1969,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -1963,11 +2001,12 @@
         <f t="shared" si="1"/>
         <v>24.9375</v>
       </c>
-      <c r="K34">
-        <v>99.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -1994,11 +2033,12 @@
         <f t="shared" si="1"/>
         <v>29.925000000000001</v>
       </c>
-      <c r="K35">
-        <v>119.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -2025,11 +2065,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>9</v>
       </c>
@@ -2056,11 +2097,12 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-      <c r="K37">
-        <v>79.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>9</v>
       </c>
@@ -2087,11 +2129,12 @@
         <f t="shared" si="1"/>
         <v>24.9375</v>
       </c>
-      <c r="K38">
-        <v>99.75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -2118,11 +2161,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>10</v>
       </c>
@@ -2149,11 +2193,12 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-      <c r="K40">
-        <v>79.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>10</v>
       </c>
@@ -2180,11 +2225,12 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-      <c r="K41">
-        <v>79.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>10</v>
       </c>
@@ -2211,11 +2257,12 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-      <c r="K42">
-        <v>159.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>11</v>
       </c>
@@ -2242,11 +2289,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>11</v>
       </c>
@@ -2273,11 +2321,12 @@
         <f t="shared" si="1"/>
         <v>9.9749999999999996</v>
       </c>
-      <c r="K44">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>11</v>
       </c>
@@ -2304,11 +2353,12 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-      <c r="K45">
-        <v>79.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>11</v>
       </c>
@@ -2335,8 +2385,9 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-      <c r="K46">
-        <v>159.6</v>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
